--- a/medicine/Enfance/Potiron_(personnage_de_Oui-Oui)/Potiron_(personnage_de_Oui-Oui).xlsx
+++ b/medicine/Enfance/Potiron_(personnage_de_Oui-Oui)/Potiron_(personnage_de_Oui-Oui).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Potiron (en anglais : Big Ears) est un personnage de fiction central de la série Oui-Oui. Dans Oui-Oui au Pays des Jouets, Potiron se définit lui-même comme un Brownie ou une sorte de Hobgobelin[1]. Il est le meilleur ami de Oui-Oui.
+Potiron (en anglais : Big Ears) est un personnage de fiction central de la série Oui-Oui. Dans Oui-Oui au Pays des Jouets, Potiron se définit lui-même comme un Brownie ou une sorte de Hobgobelin. Il est le meilleur ami de Oui-Oui.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Si son ami Oui-Oui vit à Miniville, il vit de son côté dans un endroit vallonné et bosselé en dehors de la ville. Sa maison en forme de champignon se trouve à la lisière de la Forêt enchantée[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si son ami Oui-Oui vit à Miniville, il vit de son côté dans un endroit vallonné et bosselé en dehors de la ville. Sa maison en forme de champignon se trouve à la lisière de la Forêt enchantée. 
 Il décrit lui-même ses oreilles comme trop grandes. Il a une barbe blanche. Il est en général vêtu d'un chapeau rouge, d'une veste bleu cintrée et d'un pantalon rayé.
 Il fait partie, avec son frère Topinambour (en anglais : Little-Ears) et les deux lutins Sournois et Finaud, des seuls non-jouets du Pays des Jouets.
 </t>
